--- a/src/data/case14.xlsx
+++ b/src/data/case14.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\16. GitHub\JuliaGrid\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="pmuVoltage" sheetId="1" r:id="rId1"/>
-    <sheet name="pmuCurrent" r:id="rId5" sheetId="2"/>
-    <sheet name="legacyFlow" r:id="rId6" sheetId="3"/>
-    <sheet name="legacyCurrent" r:id="rId7" sheetId="4"/>
-    <sheet name="legacyInjection" r:id="rId8" sheetId="5"/>
-    <sheet name="legacyVoltage" r:id="rId9" sheetId="6"/>
-    <sheet name="bus" r:id="rId10" sheetId="7"/>
-    <sheet name="generator" r:id="rId11" sheetId="8"/>
-    <sheet name="branch" r:id="rId12" sheetId="9"/>
-    <sheet name="basePower" r:id="rId13" sheetId="10"/>
-    <sheet name="info" r:id="rId14" sheetId="11"/>
+    <sheet name="pmuCurrent" sheetId="2" r:id="rId2"/>
+    <sheet name="legacyFlow" sheetId="3" r:id="rId3"/>
+    <sheet name="legacyCurrent" sheetId="4" r:id="rId4"/>
+    <sheet name="legacyInjection" sheetId="5" r:id="rId5"/>
+    <sheet name="legacyVoltage" sheetId="6" r:id="rId6"/>
+    <sheet name="bus" sheetId="7" r:id="rId7"/>
+    <sheet name="generator" sheetId="8" r:id="rId8"/>
+    <sheet name="branch" sheetId="9" r:id="rId9"/>
+    <sheet name="basePower" sheetId="10" r:id="rId10"/>
+    <sheet name="info" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>Bus</t>
   </si>
@@ -316,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -661,14 +660,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -697,22 +696,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2"/>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2"/>
       <c r="H2" t="s">
         <v>5</v>
       </c>
@@ -720,85 +716,85 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1.0557206920295596</v>
       </c>
       <c r="C3">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.0007468226321542222</v>
+        <v>7.4682263215422216E-4</v>
       </c>
       <c r="F3">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1.06</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1.0502579589787258</v>
       </c>
       <c r="C4">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>-0.0848548601569847</v>
+        <v>-8.4854860156984693E-2</v>
       </c>
       <c r="F4">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1.045</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="I4">
-        <v>-0.08696258579969306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-8.6962585799693057E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1.0069856261933965</v>
       </c>
       <c r="C5">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2210626231357926</v>
+        <v>-0.22106262313579261</v>
       </c>
       <c r="F5">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1.01</v>
@@ -807,27 +803,27 @@
         <v>-0.22209489156386727</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1.0173435328027909</v>
       </c>
       <c r="C6">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>-0.17828327763483037</v>
       </c>
       <c r="F6">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1.0176708536972445</v>
@@ -836,56 +832,56 @@
         <v>-0.17999407949176527</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1.020271404405945</v>
+        <v>1.0202714044059451</v>
       </c>
       <c r="C7">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>-0.15274709289977348</v>
       </c>
       <c r="F7">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1.019513859822472</v>
       </c>
       <c r="I7">
-        <v>-0.1531326386115661</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.15313263861156609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1.0620956071366916</v>
       </c>
       <c r="C8">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>-0.24982866642149182</v>
       </c>
       <c r="F8">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1.0699999999999998</v>
@@ -894,56 +890,56 @@
         <v>-0.24820233853689935</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1.0590076691736583</v>
       </c>
       <c r="C9">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>-0.2363673435993689</v>
       </c>
       <c r="F9">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1.061519532493659</v>
       </c>
       <c r="I9">
-        <v>-0.233169484361378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.23316948436137799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1.0867438701675027</v>
       </c>
       <c r="C10">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>-0.2393875326025167</v>
+        <v>-0.23938753260251669</v>
       </c>
       <c r="F10">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1.0900000000000003</v>
@@ -952,85 +948,85 @@
         <v>-0.23316948436129106</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1.0497284756374992</v>
       </c>
       <c r="C11">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>-0.2598466863068527</v>
       </c>
       <c r="F11">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1.0559317206396512</v>
       </c>
       <c r="I11">
-        <v>-0.2607263819771689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.26072638197716891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1.048351672380935</v>
       </c>
       <c r="C12">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>-0.26243761866027987</v>
       </c>
       <c r="F12">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.050984625002083</v>
+        <v>1.0509846250020829</v>
       </c>
       <c r="I12">
-        <v>-0.2634973917999244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.26349739179992437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1.068170979996133</v>
       </c>
       <c r="C13">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>-0.2573738501577382</v>
+        <v>-0.25737385015773823</v>
       </c>
       <c r="F13">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>1.0569065185415225</v>
@@ -1039,91 +1035,91 @@
         <v>-0.2581450528602654</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1.0550863335547704</v>
       </c>
       <c r="C14">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-0.2615942515374003</v>
+        <v>-0.26159425153740029</v>
       </c>
       <c r="F14">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>1.0551885631973956</v>
       </c>
       <c r="I14">
-        <v>-0.263118586539522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.26311858653952203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>1.053101860832239</v>
+        <v>1.0531018608322389</v>
       </c>
       <c r="C15">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>-0.2656077994742584</v>
+        <v>-0.26560779947425839</v>
       </c>
       <c r="F15">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>1.050381713629174</v>
       </c>
       <c r="I15">
-        <v>-0.2645269244046606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.26452692440466058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1.0324779174898586</v>
       </c>
       <c r="C16">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>-0.2783511659201092</v>
+        <v>-0.27835116592010922</v>
       </c>
       <c r="F16">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>1.0355299458557004</v>
       </c>
       <c r="I16">
-        <v>-0.2798398881247613</v>
+        <v>-0.27983988812476129</v>
       </c>
     </row>
   </sheetData>
@@ -1132,26 +1128,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1160,179 +1156,164 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3"/>
-    </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9"/>
-    </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23"/>
-    </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -1343,14 +1324,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1385,24 +1366,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2"/>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="I2"/>
       <c r="J2" t="s">
         <v>5</v>
       </c>
@@ -1410,68 +1386,68 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>13.120298371102699</v>
       </c>
       <c r="E3">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.49183538897066</v>
+        <v>1.4918353889706599</v>
       </c>
       <c r="H3">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>13.12120804346363</v>
       </c>
       <c r="K3">
-        <v>1.492492678302679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>1.4924926783026791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>11.40390803312596</v>
       </c>
       <c r="E4">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7174102577858236</v>
+        <v>0.71741025778582357</v>
       </c>
       <c r="H4">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>11.405350787245393</v>
@@ -1480,208 +1456,208 @@
         <v>0.7132898225448312</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>9.792544461516341</v>
+        <v>9.7925444615163411</v>
       </c>
       <c r="E5">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7011514535076463</v>
+        <v>0.70115145350764629</v>
       </c>
       <c r="H5">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>9.787989574093869</v>
+        <v>9.7879895740938689</v>
       </c>
       <c r="K5">
-        <v>0.7016656643805783</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.70166566438057831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>5.084324414897213</v>
+        <v>5.0843244148972131</v>
       </c>
       <c r="E6">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5313744156661341</v>
+        <v>0.53137441566613408</v>
       </c>
       <c r="H6">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>5.087391308616389</v>
+        <v>5.0873913086163887</v>
       </c>
       <c r="K6">
-        <v>0.5373483461732865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.53734834617328653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>2.762647694300233</v>
+        <v>2.7626476943002332</v>
       </c>
       <c r="E7">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0.40083755076552596</v>
       </c>
       <c r="H7">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>2.7593438637108956</v>
       </c>
       <c r="K7">
-        <v>0.3974423559499821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.39744235594998212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0.9542652303634521</v>
+        <v>0.95426523036345212</v>
       </c>
       <c r="E8">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0.23317948380382197</v>
       </c>
       <c r="H8">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9531456637237282</v>
+        <v>0.95314566372372822</v>
       </c>
       <c r="K8">
         <v>0.23476667833462364</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1.6271832680155005</v>
       </c>
       <c r="E9">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6201102709795459</v>
+        <v>0.62011027097954585</v>
       </c>
       <c r="H9">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>1.6226373836864687</v>
       </c>
       <c r="K9">
-        <v>0.6207519864324332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.62075198643243323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>1.7004480307743262</v>
       </c>
       <c r="E10">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.2889200408652196</v>
+        <v>0.28892004086521961</v>
       </c>
       <c r="H10">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1.7032142257094973</v>
@@ -1690,33 +1666,33 @@
         <v>0.29180854019242664</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>1.2995942989862699</v>
       </c>
       <c r="E11">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0.15753839684737087</v>
       </c>
       <c r="H11">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>1.3047108243826389</v>
@@ -1725,138 +1701,138 @@
         <v>0.15806134449813264</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>4.427304163716606</v>
       </c>
       <c r="E12">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4522048833509096</v>
+        <v>0.45220488335090958</v>
       </c>
       <c r="H12">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>4.421161619866547</v>
+        <v>4.4211616198665471</v>
       </c>
       <c r="K12">
         <v>0.449401771109808</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>0.11484338894747737</v>
       </c>
       <c r="E13">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.06984174353345975</v>
+        <v>6.9841743533459746E-2</v>
       </c>
       <c r="H13">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0.11595866552602195</v>
       </c>
       <c r="K13">
-        <v>0.0763544253253758</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>7.6354425325375799E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0.15145734268259756</v>
       </c>
       <c r="E14">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07725953417227271</v>
+        <v>7.7259534172272715E-2</v>
       </c>
       <c r="H14">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0.14945507075865866</v>
       </c>
       <c r="K14">
-        <v>0.07643575652940789</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>7.6435756529407886E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>0.41663562932034376</v>
       </c>
       <c r="E15">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0.17725194008418244</v>
       </c>
       <c r="H15">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0.4176623495285901</v>
@@ -1865,418 +1841,418 @@
         <v>0.17905665086667238</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>0.45433335384538653</v>
       </c>
       <c r="E16">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1569442121412901</v>
+        <v>0.15694421214129009</v>
       </c>
       <c r="H16">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4604808568718469</v>
+        <v>0.46048085687184692</v>
       </c>
       <c r="K16">
-        <v>0.1616830400587072</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0.16168304005870721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>0.8031821907737082</v>
+        <v>0.80318219077370823</v>
       </c>
       <c r="E17">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0.27001855323187757</v>
       </c>
       <c r="H17">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8020687005412351</v>
+        <v>0.80206870054123514</v>
       </c>
       <c r="K17">
         <v>0.27001612608961767</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0.028683394696903605</v>
+        <v>2.8683394696903605E-2</v>
       </c>
       <c r="E18">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.060292763628793496</v>
+        <v>6.0292763628793496E-2</v>
       </c>
       <c r="H18">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0.034200719861873494</v>
+        <v>3.4200719861873494E-2</v>
       </c>
       <c r="K18">
-        <v>0.06361935608649948</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>6.3619356086499476E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>0.25166456219227035</v>
       </c>
       <c r="E19">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F19">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0975623817793164</v>
+        <v>9.7562381779316407E-2</v>
       </c>
       <c r="H19">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I19">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0.24707531443145017</v>
       </c>
       <c r="K19">
-        <v>0.09559328728982086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>9.5593287289820861E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>0.03049588432145597</v>
+        <v>3.049588432145597E-2</v>
       </c>
       <c r="E20">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.032834517795225206</v>
+        <v>3.2834517795225206E-2</v>
       </c>
       <c r="H20">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02945138363494774</v>
+        <v>2.9451383634947741E-2</v>
       </c>
       <c r="K20">
-        <v>0.03915823273419327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>3.915823273419327E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>0.006888593770619893</v>
+        <v>6.8885937706198927E-3</v>
       </c>
       <c r="E21">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.015042237160445768</v>
+        <v>1.5042237160445768E-2</v>
       </c>
       <c r="H21">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.005698424192961001</v>
+        <v>5.698424192961001E-3</v>
       </c>
       <c r="K21">
-        <v>0.016884675448673787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>1.6884675448673787E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>0.11498683515214284</v>
       </c>
       <c r="E22">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.058573036510062515</v>
+        <v>5.8573036510062515E-2</v>
       </c>
       <c r="H22">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0.110104705005863</v>
       </c>
       <c r="K22">
-        <v>0.056247190865463224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>5.6247190865463224E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0.12808529283825232</v>
       </c>
       <c r="E23">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>1.48256719794822</v>
       </c>
       <c r="H23">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0.12933465169862673</v>
       </c>
       <c r="K23">
-        <v>1.483970982005523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>1.4839709820055229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>-0.04424491296794885</v>
+        <v>-4.424491296794885E-2</v>
       </c>
       <c r="E24">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.7119440855307049</v>
+        <v>0.71194408553070487</v>
       </c>
       <c r="H24">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>-0.051008180843102595</v>
+        <v>-5.1008180843102595E-2</v>
       </c>
       <c r="K24">
-        <v>0.7138859372644509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0.71388593726445093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>-0.13628462027529056</v>
       </c>
       <c r="E25">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.7047012786622965</v>
+        <v>0.70470127866229648</v>
       </c>
       <c r="H25">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>-0.13553604479562445</v>
       </c>
       <c r="K25">
-        <v>0.7023010689254897</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>0.70230106892548971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>-0.05670409912369825</v>
+        <v>-5.6704099123698247E-2</v>
       </c>
       <c r="E26">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.5336073953841922</v>
+        <v>0.53360739538419222</v>
       </c>
       <c r="H26">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>-0.05934963302079874</v>
+        <v>-5.9349633020798737E-2</v>
       </c>
       <c r="K26">
-        <v>0.5359154630057102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>0.53591546300571025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>-0.11564403619021235</v>
       </c>
       <c r="E27">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0.40249446258576527</v>
       </c>
       <c r="H27">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I27">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>-0.11516090467516923</v>
@@ -2285,103 +2261,103 @@
         <v>0.39888294636794236</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>3.1080412741392234</v>
       </c>
       <c r="E28">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0.23571544855578438</v>
       </c>
       <c r="H28">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>3.109283046414607</v>
+        <v>3.1092830464146068</v>
       </c>
       <c r="K28">
-        <v>0.2372894403151107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>0.23728944031511071</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>-3.06585390843182</v>
+        <v>-3.0658539084318202</v>
       </c>
       <c r="E29">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.6231781919489737</v>
+        <v>0.62317819194897373</v>
       </c>
       <c r="H29">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>-3.0684059752334596</v>
       </c>
       <c r="K29">
-        <v>0.6207519864324332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>0.62075198643243323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>0.1535796618538198</v>
       </c>
       <c r="E30">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F30">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.293205979902072</v>
+        <v>0.29320597990207198</v>
       </c>
       <c r="H30">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I30">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0.15207542862128165</v>
@@ -2390,33 +2366,33 @@
         <v>0.28538875230819305</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>-0.1497088146929622</v>
+        <v>-0.14970881469296221</v>
       </c>
       <c r="E31">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0.14917053089709315</v>
       </c>
       <c r="H31">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I31">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>-0.15340720959502044</v>
@@ -2425,208 +2401,208 @@
         <v>0.15316144281869043</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>-0.4305541773690226</v>
+        <v>-0.43055417736902257</v>
       </c>
       <c r="E32">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F32">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.4262396099310155</v>
+        <v>0.42623960993101551</v>
       </c>
       <c r="H32">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I32">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>-0.42879438987343127</v>
       </c>
       <c r="K32">
-        <v>0.4188424506743413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0.41884245067434128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>-0.6946505979986354</v>
+        <v>-0.69465059799863538</v>
       </c>
       <c r="E33">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F33">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.07966991343978301</v>
+        <v>7.9669913439783011E-2</v>
       </c>
       <c r="H33">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I33">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>-0.699132031479309</v>
+        <v>-0.69913203147930902</v>
       </c>
       <c r="K33">
-        <v>0.0763544253253758</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>7.6354425325375799E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>-0.55880679856445</v>
+        <v>-0.55880679856445004</v>
       </c>
       <c r="E34">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F34">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.07958574241088134</v>
+        <v>7.9585742410881344E-2</v>
       </c>
       <c r="H34">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I34">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>-0.5592879037681071</v>
+        <v>-0.55928790376810711</v>
       </c>
       <c r="K34">
-        <v>0.07643575652940789</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>7.6435756529407886E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>-0.6304449781498059</v>
+        <v>-0.63044497814980593</v>
       </c>
       <c r="E35">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F35">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>0.18684206571115397</v>
       </c>
       <c r="H35">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I35">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>-0.6343973811569567</v>
+        <v>-0.63439738115695665</v>
       </c>
       <c r="K35">
         <v>0.17905665086667238</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>1.3387220858311566</v>
       </c>
       <c r="E36">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F36">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.1587436227121866</v>
+        <v>0.15874362271218659</v>
       </c>
       <c r="H36">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I36">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>1.3376268424368445</v>
       </c>
       <c r="K36">
-        <v>0.1616830400587072</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>0.16168304005870721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>-0.43723721377429287</v>
       </c>
       <c r="E37">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F37">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0.27006306006252645</v>
       </c>
       <c r="H37">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I37">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>-0.43617072848873634</v>
@@ -2635,179 +2611,179 @@
         <v>0.27001612608961767</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>-0.9369472841243904</v>
+        <v>-0.93694728412439043</v>
       </c>
       <c r="E38">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F38">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0.059433093795410924</v>
+        <v>5.9433093795410924E-2</v>
       </c>
       <c r="H38">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I38">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>-0.9397793298902872</v>
+        <v>-0.93977932989028723</v>
       </c>
       <c r="K38">
-        <v>0.06361935608649948</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>6.3619356086499476E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>-0.6298710451373682</v>
+        <v>-0.62987104513736825</v>
       </c>
       <c r="E39">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F39">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.09461509596181604</v>
+        <v>9.461509596181604E-2</v>
       </c>
       <c r="H39">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I39">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>-0.6264646967238172</v>
+        <v>-0.62646469672381722</v>
       </c>
       <c r="K39">
-        <v>0.09559328728982086</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>9.5593287289820861E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>2.477436300963154</v>
+        <v>2.4774363009631539</v>
       </c>
       <c r="E40">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F40">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.0406636915493682</v>
+        <v>4.0663691549368199E-2</v>
       </c>
       <c r="H40">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I40">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>2.4748155593690986</v>
       </c>
       <c r="K40">
-        <v>0.03915823273419327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>3.915823273419327E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>-0.6977948825245712</v>
+        <v>-0.69779488252457122</v>
       </c>
       <c r="E41">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F41">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0.012569433817907639</v>
+        <v>1.2569433817907639E-2</v>
       </c>
       <c r="H41">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I41">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>-0.700070689757268</v>
+        <v>-0.70007068975726805</v>
       </c>
       <c r="K41">
-        <v>0.016884675448673787</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>1.6884675448673787E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C42">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>-0.5641951813849593</v>
+        <v>-0.56419518138495928</v>
       </c>
       <c r="E42">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F42">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.05711967456453569</v>
+        <v>5.7119674564535691E-2</v>
       </c>
       <c r="H42">
-        <v>1.0e-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I42">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>-0.5647413515880209</v>
+        <v>-0.56474135158802086</v>
       </c>
       <c r="K42">
-        <v>0.056247190865463224</v>
+        <v>5.6247190865463224E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2816,14 +2792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2858,24 +2834,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2"/>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="I2"/>
       <c r="J2" t="s">
         <v>11</v>
       </c>
@@ -2883,348 +2854,348 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1.563510306986764</v>
       </c>
       <c r="E3">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>-0.2212644612084283</v>
       </c>
       <c r="H3">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1.568828905289699</v>
+        <v>1.5688289052896991</v>
       </c>
       <c r="K3">
         <v>-0.20404291683446146</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.752464490751121</v>
+        <v>0.75246449075112098</v>
       </c>
       <c r="E4">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.033406184960790467</v>
+        <v>3.3406184960790467E-2</v>
       </c>
       <c r="H4">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7551038182428773</v>
+        <v>0.75510381824287731</v>
       </c>
       <c r="K4">
-        <v>0.0385499114135777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>3.8549911413577699E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0.7263790781520258</v>
+        <v>0.72637907815202585</v>
       </c>
       <c r="E5">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.037365843986452874</v>
+        <v>3.7365843986452874E-2</v>
       </c>
       <c r="H5">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0.7323757923727563</v>
       </c>
       <c r="K5">
-        <v>0.03560202950856417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>3.560202950856417E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0.5629617428056999</v>
+        <v>0.56296174280569988</v>
       </c>
       <c r="E6">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.0066921244992415325</v>
+        <v>-6.6921244992415325E-3</v>
       </c>
       <c r="H6">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5613149593873586</v>
+        <v>0.56131495938735865</v>
       </c>
       <c r="K6">
-        <v>-0.01550350401353285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>-1.550350401353285E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.416264793895009</v>
+        <v>0.41626479389500898</v>
       </c>
       <c r="E7">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.014488376446858728</v>
+        <v>1.4488376446858728E-2</v>
       </c>
       <c r="H7">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0.415162150172045</v>
       </c>
       <c r="K7">
-        <v>0.011709978571153981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>1.1709978571153981E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>-0.22970841466929803</v>
       </c>
       <c r="E8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.03595226996639987</v>
+        <v>3.5952269966399872E-2</v>
       </c>
       <c r="H8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>-0.23285690095806064</v>
       </c>
       <c r="K8">
-        <v>0.04473115622171711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>4.4731156221717111E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>-0.6077407780591683</v>
+        <v>-0.60774077805916826</v>
       </c>
       <c r="E9">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.157798823917206</v>
+        <v>0.15779882391720601</v>
       </c>
       <c r="H9">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-0.6115823044513229</v>
+        <v>-0.61158230445132289</v>
       </c>
       <c r="K9">
-        <v>0.1582364193966362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.15823641939663621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>0.2871409479867467</v>
+        <v>0.28714094798674672</v>
       </c>
       <c r="E10">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>-0.0949960262920059</v>
+        <v>-9.4996026292005903E-2</v>
       </c>
       <c r="H10">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0.2807417591578545</v>
+        <v>0.28074175915785449</v>
       </c>
       <c r="K10">
-        <v>-0.09681065714941636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>-9.6810657149416363E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>0.15950299056268075</v>
       </c>
       <c r="E11">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>-0.011204746379003473</v>
+        <v>-1.1204746379003473E-2</v>
       </c>
       <c r="H11">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0.16079757582904355</v>
       </c>
       <c r="K11">
-        <v>-0.004276111815580505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>-4.276111815580505E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>0.4381509894490193</v>
+        <v>0.43815098944901931</v>
       </c>
       <c r="E12">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0.11780546841759987</v>
       </c>
       <c r="H12">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0.44087320859486157</v>
@@ -3233,383 +3204,383 @@
         <v>0.1247067981098178</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>0.07931307403440833</v>
+        <v>7.9313074034408335E-2</v>
       </c>
       <c r="E13">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.03627530474572575</v>
+        <v>3.6275304745725753E-2</v>
       </c>
       <c r="H13">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07353276982565536</v>
+        <v>7.3532769825655361E-2</v>
       </c>
       <c r="K13">
-        <v>0.035604729705339955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>3.5604729705339955E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>0.07783985065707813</v>
+        <v>7.783985065707813E-2</v>
       </c>
       <c r="E14">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.03003363097203674</v>
+        <v>3.0033630972036741E-2</v>
       </c>
       <c r="H14">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.07786067015265599</v>
+        <v>7.7860670152655992E-2</v>
       </c>
       <c r="K14">
-        <v>0.025034142369310848</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>2.5034142369310848E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>0.15702220634626965</v>
       </c>
       <c r="E15">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07590929295802999</v>
+        <v>7.5909292958029992E-2</v>
       </c>
       <c r="H15">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0.17747976862047415</v>
       </c>
       <c r="K15">
-        <v>0.07216575388250905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>7.2165753882509051E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>-0.005416665956747162</v>
+        <v>-5.4166659567471617E-3</v>
       </c>
       <c r="E16">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>-0.18081114640847307</v>
       </c>
       <c r="H16">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>-5.70841984792736e-13</v>
+        <v>-5.7084198479273596E-13</v>
       </c>
       <c r="K16">
         <v>-0.17162970509527245</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>0.29583108464332497</v>
       </c>
       <c r="E17">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.049464727379345666</v>
+        <v>4.9464727379345666E-2</v>
       </c>
       <c r="H17">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0.28074175916079036</v>
       </c>
       <c r="K17">
-        <v>0.05778690569042722</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>5.7786905690427222E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0.06300230106625186</v>
+        <v>6.3002301066251862E-2</v>
       </c>
       <c r="E18">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0471174126901152</v>
+        <v>4.7117412690115199E-2</v>
       </c>
       <c r="H18">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0.052275524695516024</v>
+        <v>5.2275524695516024E-2</v>
       </c>
       <c r="K18">
-        <v>0.04219137798498933</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>4.2191377984989328E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>0.07829933840874029</v>
+        <v>7.8299338408740288E-2</v>
       </c>
       <c r="E19">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.04779895871374703</v>
+        <v>4.7798958713747029E-2</v>
       </c>
       <c r="H19">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I19">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0.09426381029983043</v>
+        <v>9.4263810299830428E-2</v>
       </c>
       <c r="K19">
-        <v>0.03610006238506482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>3.6100062385064823E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>-0.027909139898411935</v>
+        <v>-2.7909139898411935E-2</v>
       </c>
       <c r="E20">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>-0.02039968471289369</v>
+        <v>-2.039968471289369E-2</v>
       </c>
       <c r="H20">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>-0.037853223812853845</v>
+        <v>-3.7853223812853845E-2</v>
       </c>
       <c r="K20">
-        <v>-0.016150629213622168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>-1.6150629213622168E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>0.02368188689574087</v>
+        <v>2.368188689574087E-2</v>
       </c>
       <c r="E21">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.009080821721985802</v>
+        <v>9.0808217219858021E-3</v>
       </c>
       <c r="H21">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0.01614257771105607</v>
+        <v>1.614257771105607E-2</v>
       </c>
       <c r="K21">
-        <v>0.0075395916618095134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>7.5395916618095134E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>0.062126105892873054</v>
+        <v>6.2126105892873054E-2</v>
       </c>
       <c r="E22">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.03101099395256697</v>
+        <v>3.101099395256697E-2</v>
       </c>
       <c r="H22">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0.056438509798328845</v>
+        <v>5.6438509798328845E-2</v>
       </c>
       <c r="K22">
-        <v>0.017471737807591814</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>1.7471737807591814E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>-1.5221522130424319</v>
       </c>
       <c r="E23">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0.29672013360189375</v>
       </c>
       <c r="H23">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>-1.5258529019294955</v>
@@ -3618,208 +3589,208 @@
         <v>0.2767624972690983</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>-0.7529425594079338</v>
+        <v>-0.75294255940793375</v>
       </c>
       <c r="E24">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.012841861941349982</v>
+        <v>1.2841861941349982E-2</v>
       </c>
       <c r="H24">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>-0.7274750923177128</v>
+        <v>-0.72747509231771279</v>
       </c>
       <c r="K24">
-        <v>0.022293587103771745</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>2.2293587103771745E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-0.7126611413986418</v>
+        <v>-0.71266114139864178</v>
       </c>
       <c r="E25">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F25">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.02054022317630051</v>
+        <v>2.0540223176300509E-2</v>
       </c>
       <c r="H25">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I25">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>-0.709143099031004</v>
+        <v>-0.70914309903100403</v>
       </c>
       <c r="K25">
-        <v>0.016022328732376023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>1.6022328732376023E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>-0.532747081647176</v>
+        <v>-0.53274708164717599</v>
       </c>
       <c r="E26">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.013356571305201983</v>
+        <v>1.3356571305201983E-2</v>
       </c>
       <c r="H26">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I26">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>-0.5445483810670492</v>
+        <v>-0.54454838106704917</v>
       </c>
       <c r="K26">
-        <v>0.03020687466979252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>3.0206874669792522E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>-0.41125931883420824</v>
       </c>
       <c r="E27">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>-0.016822528643329872</v>
+        <v>-1.6822528643329872E-2</v>
       </c>
       <c r="H27">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>-0.4061246166409697</v>
+        <v>-0.40612461664096972</v>
       </c>
       <c r="K27">
-        <v>-0.020990339663447738</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>-2.0990339663447738E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>0.23922249666653328</v>
       </c>
       <c r="E28">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>-0.04799255517072651</v>
+        <v>-4.7992555170726509E-2</v>
       </c>
       <c r="H28">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0.23659135052399216</v>
       </c>
       <c r="K28">
-        <v>-0.04835652496985638</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>-4.8356524969856381E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>0.6125475717543921</v>
+        <v>0.61254757175439212</v>
       </c>
       <c r="E29">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>-0.16153089069435644</v>
       </c>
       <c r="H29">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0.6167265003839314</v>
@@ -3828,33 +3799,33 @@
         <v>-0.14201004555977156</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>-0.2709175849189903</v>
+        <v>-0.27091758491899032</v>
       </c>
       <c r="E30">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F30">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.09984417045353419</v>
+        <v>9.9844170453534192E-2</v>
       </c>
       <c r="H30">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I30">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>-0.28074175915785426</v>
@@ -3863,424 +3834,424 @@
         <v>0.11384279940651132</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>-0.1676439088572374</v>
       </c>
       <c r="E31">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F31">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.012792171340682862</v>
+        <v>1.2792171340682862E-2</v>
       </c>
       <c r="H31">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I31">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>-0.16079757582904347</v>
       </c>
       <c r="K31">
-        <v>0.01732322005940677</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>1.7323220059406771E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>-0.43979211195095586</v>
       </c>
       <c r="E32">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F32">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>-0.08885263595403545</v>
+        <v>-8.8852635954035447E-2</v>
       </c>
       <c r="H32">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I32">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>-0.4408732085948618</v>
+        <v>-0.44087320859486179</v>
       </c>
       <c r="K32">
-        <v>-0.08049518191115243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>-8.049518191115243E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>-0.09440329073200646</v>
+        <v>-9.4403290732006456E-2</v>
       </c>
       <c r="E33">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F33">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>-0.048176403796598814</v>
+        <v>-4.8176403796598814E-2</v>
       </c>
       <c r="H33">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I33">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>-0.07297903659027771</v>
+        <v>-7.2979036590277713E-2</v>
       </c>
       <c r="K33">
-        <v>-0.03444514305007972</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>-3.4445143050079723E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>-0.0819267804290659</v>
+        <v>-8.1926780429065899E-2</v>
       </c>
       <c r="E34">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F34">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>-0.03188979570186608</v>
+        <v>-3.1889795701866078E-2</v>
       </c>
       <c r="H34">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I34">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>-0.07714257771111943</v>
+        <v>-7.7142577711119431E-2</v>
       </c>
       <c r="K34">
-        <v>-0.02353959166172426</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>-2.3539591661724261E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>-0.1779678276900589</v>
+        <v>-0.17796782769005889</v>
       </c>
       <c r="E35">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F35">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>-0.05617001058855284</v>
+        <v>-5.6170010588552838E-2</v>
       </c>
       <c r="H35">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I35">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>-0.1753589146693483</v>
       </c>
       <c r="K35">
-        <v>-0.06798913038722315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>-6.7989130387223151E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>0.0005874591136879138</v>
+        <v>5.8745911368791382E-4</v>
       </c>
       <c r="E36">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F36">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0.17391073432249615</v>
       </c>
       <c r="H36">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I36">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>5.70841984792736e-13</v>
+        <v>5.7084198479273596E-13</v>
       </c>
       <c r="K36">
         <v>0.17623451366399093</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>-0.2850779596119413</v>
+        <v>-0.28507795961194132</v>
       </c>
       <c r="E37">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>-0.06804114009166368</v>
+        <v>-6.8041140091663677E-2</v>
       </c>
       <c r="H37">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I37">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>-0.28074175916079036</v>
       </c>
       <c r="K37">
-        <v>-0.04976621868501488</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>-4.9766218685014879E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>-0.04739657626867866</v>
+        <v>-4.7396576268678658E-2</v>
       </c>
       <c r="E38">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F38">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>-0.04962767858401669</v>
+        <v>-4.9627678584016691E-2</v>
       </c>
       <c r="H38">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I38">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>-0.05214677618678156</v>
+        <v>-5.2146776186781561E-2</v>
       </c>
       <c r="K38">
-        <v>-0.04184937078637059</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>-4.184937078637059E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>-0.08729298287207266</v>
+        <v>-8.7292982872072655E-2</v>
       </c>
       <c r="E39">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F39">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>-0.02947562951011078</v>
+        <v>-2.947562951011078E-2</v>
       </c>
       <c r="H39">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I39">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>-0.09310226938639815</v>
+        <v>-9.3102269386398151E-2</v>
       </c>
       <c r="K39">
-        <v>-0.03362930924075033</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>-3.3629309240750332E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>0.026446754790665144</v>
+        <v>2.6446754790665144E-2</v>
       </c>
       <c r="E40">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F40">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.018487033246092396</v>
+        <v>1.8487033246092396E-2</v>
       </c>
       <c r="H40">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I40">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0.03797903659086433</v>
+        <v>3.797903659086433E-2</v>
       </c>
       <c r="K40">
-        <v>0.016445143049971654</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>1.6445143049971654E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>-0.017777582732012052</v>
+        <v>-1.7777582732012052E-2</v>
       </c>
       <c r="E41">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F41">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>-0.008098504778064645</v>
+        <v>-8.0985047780646451E-3</v>
       </c>
       <c r="H41">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I41">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>-0.01607959512787071</v>
+        <v>-1.6079595127870709E-2</v>
       </c>
       <c r="K41">
-        <v>-0.007482607419879906</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>-7.4826074198799056E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C42">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>-0.07101728042850991</v>
+        <v>-7.101728042850991E-2</v>
       </c>
       <c r="E42">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F42">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>-0.019422539503362906</v>
+        <v>-1.9422539503362906E-2</v>
       </c>
       <c r="H42">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="I42">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>-0.05589773061245872</v>
+        <v>-5.5897730612458722E-2</v>
       </c>
       <c r="K42">
-        <v>-0.016370690757533175</v>
+        <v>-1.6370690757533175E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4289,14 +4260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4319,939 +4290,935 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2"/>
       <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>13.123205740448055</v>
       </c>
       <c r="E3">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>13.12120804346363</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>11.400643448572655</v>
       </c>
       <c r="E4">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>11.405350787245393</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>9.779815484613852</v>
+        <v>9.7798154846138523</v>
       </c>
       <c r="E5">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9.787989574093869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>9.7879895740938689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>5.082216595659334</v>
+        <v>5.0822165956593341</v>
       </c>
       <c r="E6">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>5.087391308616389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>5.0873913086163887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>2.7638957346957476</v>
       </c>
       <c r="E7">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2.7593438637108956</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0.9460227024365128</v>
+        <v>0.94602270243651276</v>
       </c>
       <c r="E8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.9531456637237282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.95314566372372822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1.6262192974364593</v>
       </c>
       <c r="E9">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1.6226373836864687</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>1.6982252873986579</v>
       </c>
       <c r="E10">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1.7032142257094973</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>1.3042374319472536</v>
       </c>
       <c r="E11">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>1.3047108243826389</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>4.402160349017203</v>
       </c>
       <c r="E12">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>4.421161619866547</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>4.4211616198665471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>0.11438463584533907</v>
       </c>
       <c r="E13">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0.11595866552602195</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0.13859858140991818</v>
       </c>
       <c r="E14">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0.14945507075865866</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>0.4090438244919205</v>
       </c>
       <c r="E15">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0.4176623495285901</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>0.4558182707710734</v>
       </c>
       <c r="E16">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4604808568718469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.46048085687184692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>0.8224725483965065</v>
+        <v>0.82247254839650652</v>
       </c>
       <c r="E17">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8020687005412351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.80206870054123514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0.060317981439815406</v>
+        <v>6.0317981439815406E-2</v>
       </c>
       <c r="E18">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.034200719861873494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>3.4200719861873494E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>0.26198697846446156</v>
       </c>
       <c r="E19">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0.24707531443145017</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>0.039504697896263874</v>
+        <v>3.9504697896263874E-2</v>
       </c>
       <c r="E20">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.02945138363494774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>2.9451383634947741E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>-0.006462904061147791</v>
+        <v>-6.462904061147791E-3</v>
       </c>
       <c r="E21">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.005698424192961001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>5.698424192961001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>0.12584095159575262</v>
       </c>
       <c r="E22">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0.110104705005863</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0.12604507515525368</v>
       </c>
       <c r="E23">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0.12933465169862673</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>-0.057417595459079956</v>
+        <v>-5.7417595459079956E-2</v>
       </c>
       <c r="E24">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>-0.051008180843102595</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-5.1008180843102595E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-0.135209051090441</v>
+        <v>-0.13520905109044101</v>
       </c>
       <c r="E25">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>-0.13553604479562445</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>-0.07085110300432254</v>
+        <v>-7.0851103004322541E-2</v>
       </c>
       <c r="E26">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F26">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>-0.05934963302079874</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-5.9349633020798737E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>-0.10947103854764523</v>
       </c>
       <c r="E27">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F27">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>-0.11516090467516923</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>3.0834893644846653</v>
       </c>
       <c r="E28">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>3.109283046414607</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>3.1092830464146068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>-3.0691174035315045</v>
       </c>
       <c r="E29">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>-3.0684059752334596</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>0.150104459683142</v>
+        <v>0.15010445968314201</v>
       </c>
       <c r="E30">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F30">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>0.15207542862128165</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>-0.16103427470580223</v>
       </c>
       <c r="E31">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>-0.15340720959502044</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>-0.4450983546986738</v>
+        <v>-0.44509835469867381</v>
       </c>
       <c r="E32">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F32">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>-0.42879438987343127</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>-0.6982739053719214</v>
+        <v>-0.69827390537192136</v>
       </c>
       <c r="E33">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F33">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>-0.699132031479309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.69913203147930902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>-0.5659543563549698</v>
+        <v>-0.56595435635496982</v>
       </c>
       <c r="E34">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F34">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>-0.5592879037681071</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.55928790376810711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>-0.6363762971516218</v>
+        <v>-0.63637629715162181</v>
       </c>
       <c r="E35">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F35">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>-0.6343973811569567</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.63439738115695665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>1.3529701731936343</v>
       </c>
       <c r="E36">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F36">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>1.3376268424368445</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>-0.41683901158384606</v>
       </c>
       <c r="E37">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F37">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>-0.43617072848873634</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>-0.9302452320537178</v>
+        <v>-0.93024523205371779</v>
       </c>
       <c r="E38">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F38">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>-0.9397793298902872</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.93977932989028723</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>-0.6285636546876291</v>
+        <v>-0.62856365468762909</v>
       </c>
       <c r="E39">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F39">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>-0.6264646967238172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.62646469672381722</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>2.470004882600618</v>
+        <v>2.4700048826006178</v>
       </c>
       <c r="E40">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F40">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>2.4748155593690986</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>-0.6922514536035568</v>
+        <v>-0.69225145360355678</v>
       </c>
       <c r="E41">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F41">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>-0.700070689757268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.70007068975726805</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C42">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>-0.5729012334956919</v>
+        <v>-0.57290123349569189</v>
       </c>
       <c r="E42">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="F42">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>-0.5647413515880209</v>
+        <v>-0.56474135158802086</v>
       </c>
     </row>
   </sheetData>
@@ -5260,14 +5227,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5296,22 +5263,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2"/>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2"/>
       <c r="H2" t="s">
         <v>11</v>
       </c>
@@ -5319,259 +5283,259 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2.328389968493648</v>
       </c>
       <c r="C3">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>-0.17933722897068338</v>
       </c>
       <c r="F3">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>2.323932723532576</v>
+        <v>2.3239327235325762</v>
       </c>
       <c r="I3">
         <v>-0.16549300542088755</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0.18600980972706102</v>
       </c>
       <c r="C4">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0.29322233038711804</v>
       </c>
       <c r="F4">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1830000000026634</v>
+        <v>0.18300000000266339</v>
       </c>
       <c r="I4">
         <v>0.30857100133528553</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.9495658873754484</v>
+        <v>-0.94956588737544845</v>
       </c>
       <c r="C5">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05015274280431149</v>
+        <v>5.0152742804311493E-2</v>
       </c>
       <c r="F5">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>-0.941999999989064</v>
+        <v>-0.94199999998906403</v>
       </c>
       <c r="I5">
-        <v>0.060753484954094855</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>6.0753484954094855E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>-0.48202534308150785</v>
       </c>
       <c r="C6">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03443477827434635</v>
+        <v>3.443477827434635E-2</v>
       </c>
       <c r="F6">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>-0.47800000000748083</v>
       </c>
       <c r="I6">
-        <v>0.03900000013157644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>3.9000000131576437E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.07063339173078542</v>
+        <v>-7.0633391730785422E-2</v>
       </c>
       <c r="C7">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.02210119337884063</v>
+        <v>-2.2101193378840631E-2</v>
       </c>
       <c r="F7">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.07599999997988686</v>
+        <v>-7.5999999979886865E-2</v>
       </c>
       <c r="I7">
-        <v>-0.01600000000962375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-1.600000000962375E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>-0.113201916331616</v>
       </c>
       <c r="C8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.03971291180018745</v>
+        <v>3.9712911800187448E-2</v>
       </c>
       <c r="F8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>-0.11199999999607582</v>
       </c>
       <c r="I8">
-        <v>0.05230944404600729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>5.2309444046007292E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.005566364203419348</v>
+        <v>-5.5663642034193481E-3</v>
       </c>
       <c r="C9">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-0.012129965353714446</v>
+        <v>-1.2129965353714446E-2</v>
       </c>
       <c r="F9">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2.3668304383969346e-12</v>
+        <v>2.3668304383969346E-12</v>
       </c>
       <c r="I9">
-        <v>1.6686383670644033e-12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>1.6686383670644033E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.006833540668091719</v>
+        <v>-6.833540668091719E-3</v>
       </c>
       <c r="C10">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0.18912904656311716</v>
       </c>
       <c r="F10">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>5.70841984792736e-13</v>
+        <v>5.7084198479273596E-13</v>
       </c>
       <c r="I10">
         <v>0.17623451366399093</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.2961639668937351</v>
+        <v>-0.29616396689373509</v>
       </c>
       <c r="C11">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>-0.14875806782758688</v>
       </c>
       <c r="F11">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>-0.29499999999448684</v>
@@ -5580,149 +5544,149 @@
         <v>-0.16599999999962278</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.09232915685239873</v>
+        <v>-9.232915685239873E-2</v>
       </c>
       <c r="C12">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>-0.06518924289306556</v>
+        <v>-6.518924289306556E-2</v>
       </c>
       <c r="F12">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-0.08999999999963587</v>
+        <v>-8.9999999999635871E-2</v>
       </c>
       <c r="I12">
-        <v>-0.05799999999999359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-5.7999999999993591E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.04216320282030285</v>
+        <v>-4.216320282030285E-2</v>
       </c>
       <c r="C13">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>-0.028636167338985108</v>
+        <v>-2.8636167338985108E-2</v>
       </c>
       <c r="F13">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>-0.03499999999941409</v>
+        <v>-3.499999999941409E-2</v>
       </c>
       <c r="I13">
-        <v>-0.018000000000110792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-1.8000000000110792E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.07477551397322056</v>
+        <v>-7.4775513973220561E-2</v>
       </c>
       <c r="C14">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-0.015604342123837402</v>
+        <v>-1.5604342123837402E-2</v>
       </c>
       <c r="F14">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>-0.06100000000006348</v>
+        <v>-6.1000000000063483E-2</v>
       </c>
       <c r="I14">
-        <v>-0.015999999999915204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-1.5999999999915204E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>-0.11151221073970298</v>
       </c>
       <c r="C15">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-0.05433863315376779</v>
+        <v>-5.4338633153767787E-2</v>
       </c>
       <c r="F15">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>-0.13499999999889029</v>
       </c>
       <c r="I15">
-        <v>-0.057999999999510735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-5.7999999999510735E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>-0.15538292019382216</v>
       </c>
       <c r="C16">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>-0.04769574583841715</v>
+        <v>-4.7695745838417153E-2</v>
       </c>
       <c r="F16">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="G16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>-0.14899999999885677</v>
       </c>
       <c r="I16">
-        <v>-0.049999999998284</v>
+        <v>-4.9999999998284E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5731,14 +5695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5755,252 +5719,250 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2"/>
       <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1.051777122938938</v>
+        <v>1.0517771229389381</v>
       </c>
       <c r="C3">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1.06</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1.0484292035748346</v>
       </c>
       <c r="C4">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1.045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1.0449999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9977021696162878</v>
+        <v>0.99770216961628777</v>
       </c>
       <c r="C5">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1.01</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1.0089208214946424</v>
       </c>
       <c r="C6">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1.0176708536972445</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1.0120597515754721</v>
       </c>
       <c r="C7">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1.019513859822472</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1.0792980885470196</v>
       </c>
       <c r="C8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1.0699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1.0664359056295518</v>
       </c>
       <c r="C9">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1.061519532493659</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1.0833330292287395</v>
       </c>
       <c r="C10">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1.0900000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1.0686897343562274</v>
       </c>
       <c r="C11">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1.0559317206396512</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1.046001474929193</v>
       </c>
       <c r="C12">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.050984625002083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1.0509846250020829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1.0592543653136521</v>
       </c>
       <c r="C13">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1.0569065185415225</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1.036581998906316</v>
+        <v>1.0365819989063161</v>
       </c>
       <c r="C14">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1.0551885631973956</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1.0556811803767705</v>
       </c>
       <c r="C15">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>1.050381713629174</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1.0429047833154204</v>
       </c>
       <c r="C16">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="D16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1.0355299458557004</v>
@@ -6012,14 +5974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6060,9 +6022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2"/>
-      <c r="B2"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -6075,7 +6035,6 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2"/>
       <c r="H2" t="s">
         <v>5</v>
       </c>
@@ -6085,7 +6044,6 @@
       <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="K2"/>
       <c r="L2" t="s">
         <v>5</v>
       </c>
@@ -6093,39 +6051,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1.06</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>1.06</v>
@@ -6134,12 +6092,12 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>21.7</v>
@@ -6148,25 +6106,25 @@
         <v>12.7</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1.045</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="I4">
-        <v>-4.98</v>
+        <v>-4.9800000000000004</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>1.06</v>
@@ -6175,27 +6133,27 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>94.2</v>
       </c>
       <c r="D5">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1.01</v>
@@ -6204,10 +6162,10 @@
         <v>-12.72</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1.06</v>
@@ -6216,12 +6174,12 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>47.8</v>
@@ -6230,25 +6188,25 @@
         <v>-3.9</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1.019</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="I6">
         <v>-10.33</v>
       </c>
       <c r="J6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>1.06</v>
@@ -6257,12 +6215,12 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>7.6</v>
@@ -6271,25 +6229,25 @@
         <v>1.6</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1.02</v>
       </c>
       <c r="I7">
-        <v>-8.78</v>
+        <v>-8.7799999999999994</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1.06</v>
@@ -6298,12 +6256,12 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>11.2</v>
@@ -6312,13 +6270,13 @@
         <v>7.5</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1.07</v>
@@ -6327,10 +6285,10 @@
         <v>-14.22</v>
       </c>
       <c r="J8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>1.06</v>
@@ -6339,39 +6297,39 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1.062</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="I9">
         <v>-13.37</v>
       </c>
       <c r="J9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1.06</v>
@@ -6380,39 +6338,39 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I10">
         <v>-13.36</v>
       </c>
       <c r="J10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1.06</v>
@@ -6421,27 +6379,27 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>29.5</v>
       </c>
       <c r="D11">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1.056</v>
@@ -6450,10 +6408,10 @@
         <v>-14.94</v>
       </c>
       <c r="J11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1.06</v>
@@ -6462,39 +6420,39 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>5.8</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1.051</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="I12">
         <v>-15.1</v>
       </c>
       <c r="J12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1.06</v>
@@ -6503,12 +6461,12 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>3.5</v>
@@ -6517,25 +6475,25 @@
         <v>1.8</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>1.057</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="I13">
         <v>-14.79</v>
       </c>
       <c r="J13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1.06</v>
@@ -6544,12 +6502,12 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>6.1</v>
@@ -6558,25 +6516,25 @@
         <v>1.6</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1.055</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="I14">
         <v>-15.07</v>
       </c>
       <c r="J14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1.06</v>
@@ -6585,12 +6543,12 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>13.5</v>
@@ -6599,13 +6557,13 @@
         <v>5.8</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>1.05</v>
@@ -6614,10 +6572,10 @@
         <v>-15.16</v>
       </c>
       <c r="J15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>1.06</v>
@@ -6626,27 +6584,27 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>14.9</v>
       </c>
       <c r="D16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>1.036</v>
@@ -6655,10 +6613,10 @@
         <v>-16.04</v>
       </c>
       <c r="J16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1.06</v>
@@ -6673,14 +6631,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:V7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6745,9 +6705,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2"/>
-      <c r="B2"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -6766,7 +6724,6 @@
       <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="I2"/>
       <c r="J2" t="s">
         <v>23</v>
       </c>
@@ -6803,331 +6760,330 @@
       <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="V2"/>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>232.4</v>
       </c>
       <c r="C3">
-        <v>-16.9</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="D3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1.06</v>
       </c>
       <c r="G3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>332.4</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>42.4</v>
       </c>
       <c r="D4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>-40.0</v>
+        <v>-40</v>
       </c>
       <c r="F4">
-        <v>1.045</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="G4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>23.4</v>
       </c>
       <c r="D5">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1.01</v>
       </c>
       <c r="G5">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>12.2</v>
       </c>
       <c r="D6">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>-6.0</v>
+        <v>-6</v>
       </c>
       <c r="F6">
         <v>1.07</v>
       </c>
       <c r="G6">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D7">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>-6.0</v>
+        <v>-6</v>
       </c>
       <c r="F7">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7136,14 +7092,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -7187,10 +7143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>53</v>
       </c>
@@ -7215,7 +7168,6 @@
       <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="L2"/>
       <c r="M2" t="s">
         <v>59</v>
       </c>
@@ -7223,851 +7175,851 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0.01938</v>
+        <v>1.9380000000000001E-2</v>
       </c>
       <c r="E3">
-        <v>0.05917</v>
+        <v>5.917E-2</v>
       </c>
       <c r="F3">
-        <v>0.0528</v>
+        <v>5.28E-2</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N3">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.05403</v>
+        <v>5.4030000000000002E-2</v>
       </c>
       <c r="E4">
-        <v>0.22304</v>
+        <v>0.22303999999999999</v>
       </c>
       <c r="F4">
-        <v>0.0492</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N4">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0.04699</v>
+        <v>4.6989999999999997E-2</v>
       </c>
       <c r="E5">
-        <v>0.19797</v>
+        <v>0.19797000000000001</v>
       </c>
       <c r="F5">
-        <v>0.0438</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N5">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0.05811</v>
+        <v>5.8110000000000002E-2</v>
       </c>
       <c r="E6">
         <v>0.17632</v>
       </c>
       <c r="F6">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N6">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.05695</v>
+        <v>5.6950000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>0.17388</v>
+        <v>0.17388000000000001</v>
       </c>
       <c r="F7">
-        <v>0.0346</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N7">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0.06701</v>
+        <v>6.701E-2</v>
       </c>
       <c r="E8">
-        <v>0.17103</v>
+        <v>0.17102999999999999</v>
       </c>
       <c r="F8">
-        <v>0.0128</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="G8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N8">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0.01335</v>
+        <v>1.3350000000000001E-2</v>
       </c>
       <c r="E9">
-        <v>0.04211</v>
+        <v>4.2110000000000002E-2</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N9">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0.20912</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="K10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N10">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.55618</v>
+        <v>0.55618000000000001</v>
       </c>
       <c r="F11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.969</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="K11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N11">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.25202</v>
+        <v>0.25202000000000002</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.932</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="K12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N12">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>0.09498</v>
+        <v>9.4979999999999995E-2</v>
       </c>
       <c r="E13">
-        <v>0.1989</v>
+        <v>0.19889999999999999</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N13">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>0.12291</v>
+        <v>0.12291000000000001</v>
       </c>
       <c r="E14">
-        <v>0.25581</v>
+        <v>0.25580999999999998</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N14">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>0.06615</v>
+        <v>6.615E-2</v>
       </c>
       <c r="E15">
         <v>0.13027</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N15">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0.17615</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N16">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0.11001</v>
       </c>
       <c r="F17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N17">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0.03181</v>
+        <v>3.1809999999999998E-2</v>
       </c>
       <c r="E18">
-        <v>0.0845</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N18">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>0.12711</v>
       </c>
       <c r="E19">
-        <v>0.27038</v>
+        <v>0.27038000000000001</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N19">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>0.08205</v>
+        <v>8.2049999999999998E-2</v>
       </c>
       <c r="E20">
-        <v>0.19207</v>
+        <v>0.19206999999999999</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N20">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>0.22092</v>
+        <v>0.22092000000000001</v>
       </c>
       <c r="E21">
         <v>0.19988</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N21">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>0.17093</v>
@@ -8076,31 +8028,31 @@
         <v>0.34802</v>
       </c>
       <c r="F22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>-360.0</v>
+        <v>-360</v>
       </c>
       <c r="N22">
-        <v>360.0</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/case14.xlsx
+++ b/src/data/case14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\16. GitHub\JuliaGrid\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>Bus</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Minimum Voltage</t>
   </si>
   <si>
-    <t>Positive Integer</t>
+    <t>Integer</t>
   </si>
   <si>
     <t>PQ(1), PV(2), Slack(3)</t>
@@ -222,13 +222,31 @@
     <t>transmission</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>5 in-service</t>
   </si>
   <si>
-    <t>19 in-service</t>
-  </si>
-  <si>
-    <t>2 in-service</t>
+    <t>20 in-service</t>
+  </si>
+  <si>
+    <t>3 in-service</t>
   </si>
 </sst>
 </file>
@@ -264,11 +282,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,23 +600,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1271,16 +1284,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="19.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="16.625" bestFit="1" customWidth="1"/>
@@ -1288,7 +1301,7 @@
     <col min="17" max="17" width="29.125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="16.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1755,13 +1768,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
@@ -1769,7 +1782,7 @@
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
   </cols>
@@ -2249,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>-360</v>
@@ -2755,7 +2768,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2783,7 +2796,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2820,65 +2833,65 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
-        <v>14</v>
+      <c r="B5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="1">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="1">
-        <v>8</v>
+      <c r="B7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="1">
-        <v>5</v>
+      <c r="B9" t="s">
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="1">
-        <v>20</v>
+      <c r="B10" t="s">
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1">
-        <v>3</v>
+      <c r="B11" t="s">
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/case14.xlsx
+++ b/src/data/case14.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="4"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
-    <sheet name="generator" sheetId="2" r:id="rId2"/>
-    <sheet name="branch" sheetId="3" r:id="rId3"/>
-    <sheet name="basePower" sheetId="4" r:id="rId4"/>
-    <sheet name="info" sheetId="5" r:id="rId5"/>
+    <sheet name="branch" sheetId="3" r:id="rId2"/>
+    <sheet name="generator" sheetId="2" r:id="rId3"/>
+    <sheet name="generatorcost" sheetId="6" r:id="rId4"/>
+    <sheet name="basePower" sheetId="4" r:id="rId5"/>
+    <sheet name="info" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
   <si>
     <t>Bus</t>
   </si>
@@ -247,6 +248,33 @@
   </si>
   <si>
     <t>3 in-service</t>
+  </si>
+  <si>
+    <t>Cost Model</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Piecewise(1), Polynomial(2)</t>
+  </si>
+  <si>
+    <t>Startup [currency]</t>
+  </si>
+  <si>
+    <t>Shutdown [currency]</t>
+  </si>
+  <si>
+    <t>Number of Data Points</t>
+  </si>
+  <si>
+    <t>Coefficient c2</t>
+  </si>
+  <si>
+    <t>Coefficient c1</t>
+  </si>
+  <si>
+    <t>Coefficient c0</t>
   </si>
 </sst>
 </file>
@@ -1282,490 +1310,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>232.4</v>
-      </c>
-      <c r="C3">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1.06</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>332.4</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>42.4</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>-40</v>
-      </c>
-      <c r="F4">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>140</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>23.4</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1.01</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>12.2</v>
-      </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>-6</v>
-      </c>
-      <c r="F6">
-        <v>1.07</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>-6</v>
-      </c>
-      <c r="F7">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2760,7 +2304,677 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>232.4</v>
+      </c>
+      <c r="C3">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.06</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>332.4</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>42.4</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>-40</v>
+      </c>
+      <c r="F4">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>140</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>23.4</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.01</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>12.2</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <v>1.07</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="7" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4.3029259899999998E-2</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.25</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0.01</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -2791,11 +3005,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
